--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -548,6 +548,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1964,6 +1965,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3263,6 +3265,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -1335,25 +1335,25 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="H23">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
       <c r="I23">
         <v>7</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,25 +1370,25 @@
         <v>29</v>
       </c>
       <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>48.28</v>
+      </c>
+      <c r="H24">
+        <v>51.72</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
         <v>12</v>
       </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="G24">
+      <c r="K24">
         <v>41.38</v>
-      </c>
-      <c r="H24">
-        <v>58.62</v>
-      </c>
-      <c r="I24">
-        <v>6.3</v>
-      </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>58.62</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1455,10 +1455,10 @@
         <v>6.6</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>22.73</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1487,13 +1487,13 @@
         <v>23.08</v>
       </c>
       <c r="I27">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>11.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2657,22 +2657,25 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>82.14</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>17.86</v>
+      </c>
+      <c r="I22">
+        <v>7.3</v>
       </c>
       <c r="J22">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2689,22 +2692,25 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>86.11</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>13.89</v>
+      </c>
+      <c r="I23">
+        <v>7.9</v>
       </c>
       <c r="J23">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2721,22 +2727,25 @@
         <v>29</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>37.93</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>62.07</v>
+      </c>
+      <c r="I24">
+        <v>6.6</v>
       </c>
       <c r="J24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2753,22 +2762,25 @@
         <v>36</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I25">
+        <v>7.3</v>
       </c>
       <c r="J25">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2785,22 +2797,25 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>45.45</v>
+      </c>
+      <c r="I26">
+        <v>6.6</v>
       </c>
       <c r="J26">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2817,22 +2832,25 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>34.62</v>
+      </c>
+      <c r="I27">
+        <v>6.9</v>
       </c>
       <c r="J27">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4017,19 +4035,19 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="H22">
-        <v>21.43</v>
+        <v>17.86</v>
       </c>
       <c r="I22">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4052,25 +4070,25 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="H23">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4087,25 +4105,25 @@
         <v>29</v>
       </c>
       <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>48.28</v>
+      </c>
+      <c r="H24">
+        <v>51.72</v>
+      </c>
+      <c r="I24">
+        <v>6.2</v>
+      </c>
+      <c r="J24">
         <v>12</v>
       </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="G24">
+      <c r="K24">
         <v>41.38</v>
-      </c>
-      <c r="H24">
-        <v>58.62</v>
-      </c>
-      <c r="I24">
-        <v>6.3</v>
-      </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>58.62</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4134,7 +4152,7 @@
         <v>8.33</v>
       </c>
       <c r="I25">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4172,10 +4190,10 @@
         <v>6.6</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K26">
-        <v>22.73</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4192,25 +4210,25 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>76.92</v>
+        <v>80.77</v>
       </c>
       <c r="H27">
-        <v>23.08</v>
+        <v>19.23</v>
       </c>
       <c r="I27">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>11.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -600,25 +600,25 @@
         <v>29</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>44.83</v>
+        <v>51.72</v>
       </c>
       <c r="H2">
-        <v>55.17</v>
+        <v>48.28</v>
       </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>55.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,25 +635,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="H3">
-        <v>61.9</v>
+        <v>52.38</v>
       </c>
       <c r="I3">
-        <v>7.3</v>
+        <v>6.2</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,25 +670,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>28.57</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -717,13 +717,13 @@
         <v>68.18000000000001</v>
       </c>
       <c r="I5">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>68.18000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,25 +740,25 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>27.27</v>
+        <v>31.82</v>
       </c>
       <c r="H6">
-        <v>72.73</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="I6">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>72.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,25 +775,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>79.48999999999999</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H7">
-        <v>20.51</v>
+        <v>12.82</v>
       </c>
       <c r="I7">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>20.51</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,25 +810,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>87.8</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H8">
-        <v>12.2</v>
+        <v>7.32</v>
       </c>
       <c r="I8">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,25 +845,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,25 +880,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>87.18000000000001</v>
+        <v>92.31</v>
       </c>
       <c r="H10">
-        <v>12.82</v>
+        <v>7.69</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>12.82</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -927,13 +927,13 @@
         <v>11.43</v>
       </c>
       <c r="I11">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>11.43</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,25 +950,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>75</v>
+        <v>80.56</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>19.44</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,25 +985,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>55.56</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1160,25 +1160,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>81.81999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H18">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
       <c r="I18">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,25 +1195,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>52.63</v>
+        <v>55.26</v>
       </c>
       <c r="H19">
-        <v>47.37</v>
+        <v>44.74</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19">
-        <v>47.37</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,25 +1230,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H20">
-        <v>30.77</v>
+        <v>25.64</v>
       </c>
       <c r="I20">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>30.77</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,25 +1265,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1510,25 +1510,25 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28">
-        <v>43.59</v>
+        <v>46.15</v>
       </c>
       <c r="H28">
-        <v>56.41</v>
+        <v>53.85</v>
       </c>
       <c r="I28">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="J28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1580,25 +1580,25 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>45.83</v>
+        <v>62.5</v>
       </c>
       <c r="H30">
-        <v>54.17</v>
+        <v>37.5</v>
       </c>
       <c r="I30">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>54.17</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,25 +1615,25 @@
         <v>37</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F31">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G31">
-        <v>21.62</v>
+        <v>40.54</v>
       </c>
       <c r="H31">
-        <v>78.38</v>
+        <v>59.46</v>
       </c>
       <c r="I31">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="J31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>78.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2017,22 +2017,25 @@
         <v>29</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>55.17</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>44.83</v>
+      </c>
+      <c r="I2">
+        <v>6.7</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2049,22 +2052,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.62</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>52.38</v>
+      </c>
+      <c r="I3">
+        <v>5.7</v>
       </c>
       <c r="J3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2081,22 +2087,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>82.14</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>17.86</v>
+      </c>
+      <c r="I4">
+        <v>7.1</v>
       </c>
       <c r="J4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2113,22 +2122,25 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>36.36</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>63.64</v>
+      </c>
+      <c r="I5">
+        <v>6.4</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2145,22 +2157,25 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>31.82</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>68.18000000000001</v>
+      </c>
+      <c r="I6">
+        <v>6.3</v>
       </c>
       <c r="J6">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2177,22 +2192,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="I7">
+        <v>6.7</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2209,22 +2227,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>82.93000000000001</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>17.07</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2241,22 +2262,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>6.9</v>
       </c>
       <c r="J9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2273,22 +2297,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>28.21</v>
+      </c>
+      <c r="I10">
+        <v>7.1</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2305,22 +2332,25 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>62.86</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>37.14</v>
+      </c>
+      <c r="I11">
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2337,22 +2367,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>41.67</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2369,22 +2402,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>36.11</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>63.89</v>
+      </c>
+      <c r="I13">
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2529,22 +2565,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>72.73</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>27.27</v>
+      </c>
+      <c r="I18">
+        <v>7.9</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2561,22 +2600,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>44.74</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>55.26</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
       </c>
       <c r="J19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2593,22 +2635,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>43.59</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2625,22 +2670,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>58.82</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>41.18</v>
+      </c>
+      <c r="I21">
+        <v>8.199999999999999</v>
       </c>
       <c r="J21">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2867,22 +2915,25 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>66.67</v>
+      </c>
+      <c r="I28">
+        <v>6.5</v>
       </c>
       <c r="J28">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2931,22 +2982,25 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>45.83</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>54.17</v>
+      </c>
+      <c r="I30">
+        <v>6.3</v>
       </c>
       <c r="J30">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2963,22 +3017,25 @@
         <v>37</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>10.81</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>89.19</v>
+      </c>
+      <c r="I31">
+        <v>6.8</v>
       </c>
       <c r="J31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>86.48999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3335,25 +3392,25 @@
         <v>29</v>
       </c>
       <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
       <c r="G2">
+        <v>55.17</v>
+      </c>
+      <c r="H2">
         <v>44.83</v>
       </c>
-      <c r="H2">
-        <v>55.17</v>
-      </c>
       <c r="I2">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>55.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3370,25 +3427,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>38.1</v>
+        <v>47.62</v>
       </c>
       <c r="H3">
-        <v>61.9</v>
+        <v>52.38</v>
       </c>
       <c r="I3">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>61.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3405,25 +3462,25 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>71.43000000000001</v>
+        <v>82.14</v>
       </c>
       <c r="H4">
-        <v>28.57</v>
+        <v>17.86</v>
       </c>
       <c r="I4">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3440,25 +3497,25 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>31.82</v>
+        <v>36.36</v>
       </c>
       <c r="H5">
-        <v>68.18000000000001</v>
+        <v>63.64</v>
       </c>
       <c r="I5">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>68.18000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3475,25 +3532,25 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>27.27</v>
+        <v>31.82</v>
       </c>
       <c r="H6">
-        <v>72.73</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="I6">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>72.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3510,25 +3567,25 @@
         <v>39</v>
       </c>
       <c r="E7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>79.48999999999999</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H7">
-        <v>20.51</v>
+        <v>12.82</v>
       </c>
       <c r="I7">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>20.51</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3545,25 +3602,25 @@
         <v>41</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>87.8</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H8">
-        <v>12.2</v>
+        <v>7.32</v>
       </c>
       <c r="I8">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3580,25 +3637,25 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3615,25 +3672,25 @@
         <v>39</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>87.18000000000001</v>
+        <v>92.31</v>
       </c>
       <c r="H10">
-        <v>12.82</v>
+        <v>7.69</v>
       </c>
       <c r="I10">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>12.82</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3662,13 +3719,13 @@
         <v>11.43</v>
       </c>
       <c r="I11">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>11.43</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3685,25 +3742,25 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>75</v>
+        <v>80.56</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>19.44</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>25</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3720,25 +3777,25 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>55.56</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3895,25 +3952,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>81.81999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H18">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
       <c r="I18">
         <v>8.199999999999999</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3930,25 +3987,25 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>52.63</v>
+        <v>55.26</v>
       </c>
       <c r="H19">
-        <v>47.37</v>
+        <v>44.74</v>
       </c>
       <c r="I19">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19">
-        <v>47.37</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3965,25 +4022,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H20">
-        <v>30.77</v>
+        <v>25.64</v>
       </c>
       <c r="I20">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>30.77</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4000,25 +4057,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4245,25 +4302,25 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
       <c r="H28">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I28">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="J28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4315,25 +4372,25 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>45.83</v>
+        <v>58.33</v>
       </c>
       <c r="H30">
-        <v>54.17</v>
+        <v>41.67</v>
       </c>
       <c r="I30">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>54.17</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4350,25 +4407,25 @@
         <v>37</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G31">
-        <v>21.62</v>
+        <v>37.84</v>
       </c>
       <c r="H31">
-        <v>78.38</v>
+        <v>62.16</v>
       </c>
       <c r="I31">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="J31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>78.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -1020,25 +1020,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>80.56</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>19.44</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,25 +1055,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>59.09</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>40.91</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>40.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,25 +1090,25 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,25 +1125,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>47.62</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>52.38</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>52.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1557,13 +1557,13 @@
         <v>29.73</v>
       </c>
       <c r="I29">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>29.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1662,13 +1662,13 @@
         <v>22.58</v>
       </c>
       <c r="I32">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1697,13 +1697,13 @@
         <v>23.81</v>
       </c>
       <c r="I33">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1732,13 +1732,13 @@
         <v>12.5</v>
       </c>
       <c r="I34">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1767,13 +1767,13 @@
         <v>26.09</v>
       </c>
       <c r="I35">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>26.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,25 +1790,25 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36">
-        <v>61.11</v>
+        <v>63.89</v>
       </c>
       <c r="H36">
-        <v>38.89</v>
+        <v>36.11</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>38.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="E37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
       <c r="H37">
-        <v>23.53</v>
+        <v>20.59</v>
       </c>
       <c r="I37">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,25 +1860,25 @@
         <v>26</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>61.54</v>
+        <v>73.08</v>
       </c>
       <c r="H38">
-        <v>38.46</v>
+        <v>26.92</v>
       </c>
       <c r="I38">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>38.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,25 +1895,25 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>31.43</v>
       </c>
       <c r="I39">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,25 +1930,25 @@
         <v>29</v>
       </c>
       <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
         <v>14</v>
       </c>
-      <c r="F40">
-        <v>15</v>
-      </c>
       <c r="G40">
+        <v>51.72</v>
+      </c>
+      <c r="H40">
         <v>48.28</v>
       </c>
-      <c r="H40">
-        <v>51.72</v>
-      </c>
       <c r="I40">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>51.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2437,22 +2437,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>8.9</v>
       </c>
       <c r="J14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2469,22 +2472,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>8.4</v>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2501,22 +2507,25 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>8.9</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2533,22 +2542,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>7.5</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2950,22 +2962,25 @@
         <v>37</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>51.35</v>
+      </c>
+      <c r="I29">
+        <v>7.1</v>
       </c>
       <c r="J29">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>45.95</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3017,25 +3032,25 @@
         <v>37</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G31">
-        <v>10.81</v>
+        <v>21.62</v>
       </c>
       <c r="H31">
-        <v>89.19</v>
+        <v>78.38</v>
       </c>
       <c r="I31">
         <v>6.8</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K31">
-        <v>86.48999999999999</v>
+        <v>75.68000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3052,22 +3067,25 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>48.39</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>51.61</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3084,22 +3102,25 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>57.14</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>42.86</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3116,22 +3137,25 @@
         <v>40</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>35</v>
+      </c>
+      <c r="I34">
+        <v>7.2</v>
       </c>
       <c r="J34">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3148,22 +3172,25 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>47.83</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>52.17</v>
+      </c>
+      <c r="I35">
+        <v>6.9</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K35">
-        <v>100</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3180,22 +3207,25 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>55.56</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>44.44</v>
+      </c>
+      <c r="I36">
+        <v>7.9</v>
       </c>
       <c r="J36">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K36">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3212,22 +3242,25 @@
         <v>34</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>32.35</v>
+      </c>
+      <c r="I37">
+        <v>8.699999999999999</v>
       </c>
       <c r="J37">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3244,22 +3277,25 @@
         <v>26</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>65.38</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>34.62</v>
+      </c>
+      <c r="I38">
+        <v>7.6</v>
       </c>
       <c r="J38">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="K38">
-        <v>100</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3276,22 +3312,25 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F39">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>37.14</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>62.86</v>
+      </c>
+      <c r="I39">
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3308,22 +3347,25 @@
         <v>29</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>48.28</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>51.72</v>
+      </c>
+      <c r="I40">
+        <v>7.8</v>
       </c>
       <c r="J40">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="K40">
-        <v>100</v>
+        <v>48.28</v>
       </c>
     </row>
   </sheetData>
@@ -3812,25 +3854,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>80.56</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>19.44</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3847,25 +3889,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>59.09</v>
+        <v>100</v>
       </c>
       <c r="H15">
-        <v>40.91</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>40.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3882,25 +3924,25 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3917,25 +3959,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>47.62</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>52.38</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>8.4</v>
+        <v>7.5</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>52.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4349,13 +4391,13 @@
         <v>29.73</v>
       </c>
       <c r="I29">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="J29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>29.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4442,25 +4484,25 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>77.42</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H32">
-        <v>22.58</v>
+        <v>32.26</v>
       </c>
       <c r="I32">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4489,13 +4531,13 @@
         <v>23.81</v>
       </c>
       <c r="I33">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>23.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4512,25 +4554,25 @@
         <v>40</v>
       </c>
       <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>65</v>
+      </c>
+      <c r="H34">
         <v>35</v>
       </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <v>87.5</v>
-      </c>
-      <c r="H34">
-        <v>12.5</v>
-      </c>
       <c r="I34">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4547,25 +4589,25 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>73.91</v>
+        <v>60.87</v>
       </c>
       <c r="H35">
-        <v>26.09</v>
+        <v>39.13</v>
       </c>
       <c r="I35">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>26.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4582,25 +4624,25 @@
         <v>36</v>
       </c>
       <c r="E36">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>61.11</v>
+        <v>69.44</v>
       </c>
       <c r="H36">
-        <v>38.89</v>
+        <v>30.56</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>38.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -4617,25 +4659,25 @@
         <v>34</v>
       </c>
       <c r="E37">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>76.47</v>
+        <v>79.41</v>
       </c>
       <c r="H37">
-        <v>23.53</v>
+        <v>20.59</v>
       </c>
       <c r="I37">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>23.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4652,25 +4694,25 @@
         <v>26</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>61.54</v>
+        <v>73.08</v>
       </c>
       <c r="H38">
-        <v>38.46</v>
+        <v>26.92</v>
       </c>
       <c r="I38">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>38.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -4687,25 +4729,25 @@
         <v>35</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>31.43</v>
       </c>
       <c r="I39">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -4722,25 +4764,25 @@
         <v>29</v>
       </c>
       <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
         <v>14</v>
       </c>
-      <c r="F40">
-        <v>15</v>
-      </c>
       <c r="G40">
+        <v>51.72</v>
+      </c>
+      <c r="H40">
         <v>48.28</v>
       </c>
-      <c r="H40">
-        <v>51.72</v>
-      </c>
       <c r="I40">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>51.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -3242,25 +3242,25 @@
         <v>34</v>
       </c>
       <c r="E37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>67.65000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="H37">
-        <v>32.35</v>
+        <v>29.41</v>
       </c>
       <c r="I37">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K37">
-        <v>32.35</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4659,16 +4659,16 @@
         <v>34</v>
       </c>
       <c r="E37">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H37">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I37">
         <v>7.9</v>

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -1522,13 +1522,13 @@
         <v>53.85</v>
       </c>
       <c r="I28">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2927,25 +2927,25 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>33.33</v>
+        <v>35.9</v>
       </c>
       <c r="H28">
-        <v>66.67</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I28">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K28">
-        <v>48.72</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3032,25 +3032,25 @@
         <v>37</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G31">
-        <v>21.62</v>
+        <v>29.73</v>
       </c>
       <c r="H31">
-        <v>78.38</v>
+        <v>70.27</v>
       </c>
       <c r="I31">
         <v>6.8</v>
       </c>
       <c r="J31">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K31">
-        <v>75.68000000000001</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4356,13 +4356,13 @@
         <v>64.09999999999999</v>
       </c>
       <c r="I28">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="J28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>30.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -1595,10 +1595,10 @@
         <v>6.4</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2647,25 +2647,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H20">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K20">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2942,10 +2942,10 @@
         <v>6.4</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2997,25 +2997,25 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>45.83</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>54.17</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3044,13 +3044,13 @@
         <v>70.27</v>
       </c>
       <c r="I31">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31">
-        <v>64.86</v>
+        <v>62.16</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4414,25 +4414,25 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>58.33</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>41.67</v>
+        <v>50</v>
       </c>
       <c r="I30">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 2020.xlsx
+++ b/academias/Matemáticas - Estadisticos 2020.xlsx
@@ -57,7 +57,7 @@
     <t>González Altamirano Victorino Juventino</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>Muñoz Rivadeneyra Salvador</t>
@@ -72,7 +72,7 @@
     <t>Santiago Hernández Mariana</t>
   </si>
   <si>
-    <t>Velasco Sanchez David</t>
+    <t>Velasco Sánchez David</t>
   </si>
   <si>
     <t>6AEV</t>
@@ -1230,25 +1230,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="H20">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
       <c r="I20">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,25 +1265,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>64.70999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H21">
-        <v>35.29</v>
+        <v>32.35</v>
       </c>
       <c r="I21">
         <v>8.800000000000001</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>35.29</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2577,25 +2577,25 @@
         <v>33</v>
       </c>
       <c r="E18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H18">
-        <v>27.27</v>
+        <v>24.24</v>
       </c>
       <c r="I18">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>27.27</v>
+        <v>24.24</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2647,25 +2647,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>64.09999999999999</v>
+        <v>74.36</v>
       </c>
       <c r="H20">
-        <v>35.9</v>
+        <v>25.64</v>
       </c>
       <c r="I20">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>35.9</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2682,25 +2682,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
       <c r="I21">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K21">
-        <v>41.18</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4064,25 +4064,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="H20">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
       <c r="I20">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>25.64</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4099,25 +4099,25 @@
         <v>34</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>64.70999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H21">
-        <v>35.29</v>
+        <v>32.35</v>
       </c>
       <c r="I21">
         <v>8.699999999999999</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>35.29</v>
+        <v>32.35</v>
       </c>
     </row>
     <row r="22" spans="1:11">
